--- a/Python/20210915_steamlit_video_bookmarks/modified.xlsx
+++ b/Python/20210915_steamlit_video_bookmarks/modified.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>FilePath</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +501,11 @@
           <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\不僅僅是編程｜如何成為成功的工程師 6-39 screenshot.png</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['b', 'c']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,6 +538,11 @@
           <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\不僅僅是編程｜如何成為成功的工程師 7-17 screenshot.png</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['g', 'a']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +575,11 @@
           <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\不僅僅是編程｜如何成為成功的工程師 7-19 screenshot.png</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['b', 'a']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -592,6 +612,11 @@
           <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\不僅僅是編程｜如何成為成功的工程師 7-22 screenshot.png</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['g', 'b']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -624,6 +649,11 @@
           <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\好和弦教你做 8-bit 音樂！懷舊電玩風～ 2-44 screenshot.png</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['c', 'b']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -656,6 +686,11 @@
           <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\好和弦教你做 8-bit 音樂！懷舊電玩風～ 5-7 screenshot.png</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['c', 'f']</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -688,6 +723,11 @@
           <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\超簡單又厲害的編曲軟體 - PixiTracker！ 10-2 screenshot.png</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>a, c, b</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -718,6 +758,11 @@
       <c r="F9" t="inlineStr">
         <is>
           <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\超簡單又厲害的編曲軟體 - PixiTracker！ 10-4 screenshot.png</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['e', 'c']</t>
         </is>
       </c>
     </row>

--- a/Python/20210915_steamlit_video_bookmarks/modified.xlsx
+++ b/Python/20210915_steamlit_video_bookmarks/modified.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>alink</t>
+          <t>aLink</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -467,6 +467,16 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Tags</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Descri</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LinkCK</t>
         </is>
       </c>
     </row>
@@ -478,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>06:39</t>
+          <t>00:06:39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,7 +503,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI#t=06m39s</t>
+          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,8 +513,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['b', 'c']</t>
-        </is>
+          <t>a, b</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -515,7 +529,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>07:17</t>
+          <t>00:07:17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -530,7 +544,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI#t=07m17s</t>
+          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -540,8 +554,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['g', 'a']</t>
-        </is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>07:19</t>
+          <t>00:07:19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,7 +585,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI#t=07m19s</t>
+          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -577,8 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['b', 'a']</t>
-        </is>
+          <t>d, b</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -589,7 +611,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>07:22</t>
+          <t>00:07:22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,7 +626,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI#t=07m22s</t>
+          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -614,8 +636,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['g', 'b']</t>
-        </is>
+          <t>c, c</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>02:44</t>
+          <t>00:02:44</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,7 +667,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8TbGCGDEgFk#t=02m44s</t>
+          <t>https://www.youtube.com/watch?v=8TbGCGDEgFk</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,8 +677,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['c', 'b']</t>
-        </is>
+          <t>d, c</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +693,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>05:07</t>
+          <t>00:05:07</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,7 +708,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8TbGCGDEgFk#t=05m07s</t>
+          <t>https://www.youtube.com/watch?v=8TbGCGDEgFk</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -688,8 +718,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['c', 'f']</t>
-        </is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,7 +734,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>00:10:02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -715,7 +749,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=hciSF-wGlyc#t=10m02s</t>
+          <t>https://www.youtube.com/watch?v=hciSF-wGlyc</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -725,8 +759,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>a, c, b</t>
-        </is>
+          <t>c, c</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -737,7 +775,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>00:10:04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,7 +790,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=hciSF-wGlyc#t=10m04s</t>
+          <t>https://www.youtube.com/watch?v=hciSF-wGlyc</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -762,8 +800,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['e', 'c']</t>
-        </is>
+          <t>d, c</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Python/20210915_steamlit_video_bookmarks/modified.xlsx
+++ b/Python/20210915_steamlit_video_bookmarks/modified.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,21 @@
           <t>LinkCK</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Channel</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,12 +528,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>a, b</t>
+          <t>職場</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>0</v>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>7:51</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>xS5Lv7-bMYI</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>HackBear 泰瑞</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -554,12 +584,27 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>職場</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>0</v>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>7:51</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>xS5Lv7-bMYI</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>HackBear 泰瑞</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -595,12 +640,27 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>d, b</t>
+          <t>職場</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>0</v>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>7:51</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>xS5Lv7-bMYI</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>HackBear 泰瑞</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -636,12 +696,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>c, c</t>
+          <t>職場</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>0</v>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>7:51</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>xS5Lv7-bMYI</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>HackBear 泰瑞</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -677,12 +752,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>d, c</t>
+          <t>編曲</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0</v>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>11:29</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>8TbGCGDEgFk</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>NiceChord (好和弦)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -718,12 +808,27 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>編曲</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>0</v>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>11:29</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>8TbGCGDEgFk</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>NiceChord (好和弦)</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -759,12 +864,27 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>c, c</t>
+          <t>編曲</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>0</v>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>hciSF-wGlyc</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>NiceChord (好和弦)</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -800,12 +920,27 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>d, c</t>
+          <t>編曲</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0</v>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>hciSF-wGlyc</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>NiceChord (好和弦)</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Python/20210915_steamlit_video_bookmarks/modified.xlsx
+++ b/Python/20210915_steamlit_video_bookmarks/modified.xlsx
@@ -498,37 +498,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>不僅僅是編程｜如何成為成功的工程師</t>
+          <t>好和弦教你做 8-bit 音樂！懷舊電玩風～</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00:06:39</t>
+          <t>00:02:44</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>2021-09-16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=xS5Lv7-bMYI#t=06m39s"&gt;Link&lt;/a&gt;</t>
+          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=8TbGCGDEgFk#t=02m44s"&gt;Link&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI</t>
+          <t>https://www.youtube.com/watch?v=8TbGCGDEgFk</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\不僅僅是編程｜如何成為成功的工程師 6-39 screenshot.png</t>
+          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\編曲\好和弦教你做 8-bit 音樂！懷舊電玩風～ 2-44 screenshot.png</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>職場</t>
+          <t>編曲</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -537,54 +537,54 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7:51</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>xS5Lv7-bMYI</t>
+          <t>8TbGCGDEgFk</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>HackBear 泰瑞</t>
+          <t>NiceChord (好和弦)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>不僅僅是編程｜如何成為成功的工程師</t>
+          <t>好和弦教你做 8-bit 音樂！懷舊電玩風～</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00:07:17</t>
+          <t>00:05:07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>2021-09-16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=xS5Lv7-bMYI#t=07m17s"&gt;Link&lt;/a&gt;</t>
+          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=8TbGCGDEgFk#t=05m07s"&gt;Link&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI</t>
+          <t>https://www.youtube.com/watch?v=8TbGCGDEgFk</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\不僅僅是編程｜如何成為成功的工程師 7-17 screenshot.png</t>
+          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\編曲\好和弦教你做 8-bit 音樂！懷舊電玩風～ 5-7 screenshot.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>職場</t>
+          <t>編曲</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -593,54 +593,54 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>7:51</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>xS5Lv7-bMYI</t>
+          <t>8TbGCGDEgFk</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>HackBear 泰瑞</t>
+          <t>NiceChord (好和弦)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>不僅僅是編程｜如何成為成功的工程師</t>
+          <t>超簡單又厲害的編曲軟體 - PixiTracker！</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00:07:19</t>
+          <t>00:10:02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>2021-09-16</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=xS5Lv7-bMYI#t=07m19s"&gt;Link&lt;/a&gt;</t>
+          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=hciSF-wGlyc#t=10m02s"&gt;Link&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI</t>
+          <t>https://www.youtube.com/watch?v=hciSF-wGlyc</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\不僅僅是編程｜如何成為成功的工程師 7-19 screenshot.png</t>
+          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\編曲\超簡單又厲害的編曲軟體 - PixiTracker！ 10-2 screenshot.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>職場</t>
+          <t>編曲</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -649,54 +649,54 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>7:51</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>xS5Lv7-bMYI</t>
+          <t>hciSF-wGlyc</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>HackBear 泰瑞</t>
+          <t>NiceChord (好和弦)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>不僅僅是編程｜如何成為成功的工程師</t>
+          <t>超簡單又厲害的編曲軟體 - PixiTracker！</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00:07:22</t>
+          <t>00:10:04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>2021-09-16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=xS5Lv7-bMYI#t=07m22s"&gt;Link&lt;/a&gt;</t>
+          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=hciSF-wGlyc#t=10m04s"&gt;Link&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI</t>
+          <t>https://www.youtube.com/watch?v=hciSF-wGlyc</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\不僅僅是編程｜如何成為成功的工程師 7-22 screenshot.png</t>
+          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\編曲\超簡單又厲害的編曲軟體 - PixiTracker！ 10-4 screenshot.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>職場</t>
+          <t>編曲</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -705,54 +705,54 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>7:51</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>xS5Lv7-bMYI</t>
+          <t>hciSF-wGlyc</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>HackBear 泰瑞</t>
+          <t>NiceChord (好和弦)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>好和弦教你做 8-bit 音樂！懷舊電玩風～</t>
+          <t>不僅僅是編程｜如何成為成功的工程師</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00:02:44</t>
+          <t>00:06:39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-09-16</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=8TbGCGDEgFk#t=02m44s"&gt;Link&lt;/a&gt;</t>
+          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=xS5Lv7-bMYI#t=06m39s"&gt;Link&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8TbGCGDEgFk</t>
+          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\好和弦教你做 8-bit 音樂！懷舊電玩風～ 2-44 screenshot.png</t>
+          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\職場\不僅僅是編程｜如何成為成功的工程師 6-39 screenshot.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>編曲</t>
+          <t>職場</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -761,54 +761,54 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>7:51</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>8TbGCGDEgFk</t>
+          <t>xS5Lv7-bMYI</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>NiceChord (好和弦)</t>
+          <t>HackBear 泰瑞</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>好和弦教你做 8-bit 音樂！懷舊電玩風～</t>
+          <t>不僅僅是編程｜如何成為成功的工程師</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>00:05:07</t>
+          <t>00:07:17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-09-16</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=8TbGCGDEgFk#t=05m07s"&gt;Link&lt;/a&gt;</t>
+          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=xS5Lv7-bMYI#t=07m17s"&gt;Link&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8TbGCGDEgFk</t>
+          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\好和弦教你做 8-bit 音樂！懷舊電玩風～ 5-7 screenshot.png</t>
+          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\職場\不僅僅是編程｜如何成為成功的工程師 7-17 screenshot.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>編曲</t>
+          <t>職場</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -817,54 +817,54 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>7:51</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>8TbGCGDEgFk</t>
+          <t>xS5Lv7-bMYI</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>NiceChord (好和弦)</t>
+          <t>HackBear 泰瑞</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>超簡單又厲害的編曲軟體 - PixiTracker！</t>
+          <t>不僅僅是編程｜如何成為成功的工程師</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>00:10:02</t>
+          <t>00:07:19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-09-16</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=hciSF-wGlyc#t=10m02s"&gt;Link&lt;/a&gt;</t>
+          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=xS5Lv7-bMYI#t=07m19s"&gt;Link&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=hciSF-wGlyc</t>
+          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\超簡單又厲害的編曲軟體 - PixiTracker！ 10-2 screenshot.png</t>
+          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\職場\不僅僅是編程｜如何成為成功的工程師 7-19 screenshot.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>編曲</t>
+          <t>職場</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -873,54 +873,54 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>7:51</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>hciSF-wGlyc</t>
+          <t>xS5Lv7-bMYI</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>NiceChord (好和弦)</t>
+          <t>HackBear 泰瑞</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>超簡單又厲害的編曲軟體 - PixiTracker！</t>
+          <t>不僅僅是編程｜如何成為成功的工程師</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>00:10:04</t>
+          <t>00:07:22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-09-16</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=hciSF-wGlyc#t=10m04s"&gt;Link&lt;/a&gt;</t>
+          <t>&lt;a target="_blank" href="https://www.youtube.com/watch?v=xS5Lv7-bMYI#t=07m22s"&gt;Link&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=hciSF-wGlyc</t>
+          <t>https://www.youtube.com/watch?v=xS5Lv7-bMYI</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\超簡單又厲害的編曲軟體 - PixiTracker！ 10-4 screenshot.png</t>
+          <t>g:\my_coding\Python\20210915_steamlit_video_bookmarks\res\職場\不僅僅是編程｜如何成為成功的工程師 7-22 screenshot.png</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>編曲</t>
+          <t>職場</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -929,17 +929,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>7:51</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>hciSF-wGlyc</t>
+          <t>xS5Lv7-bMYI</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>NiceChord (好和弦)</t>
+          <t>HackBear 泰瑞</t>
         </is>
       </c>
     </row>
